--- a/data/trans_orig/P6602-Clase-trans_orig.xlsx
+++ b/data/trans_orig/P6602-Clase-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>231249</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>212048</v>
+        <v>213634</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>248636</v>
+        <v>248998</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.6515720033237524</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.5974727186088833</v>
+        <v>0.6019403569579022</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.7005627122396682</v>
+        <v>0.701582497421986</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>175</v>
@@ -765,19 +765,19 @@
         <v>179658</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>166510</v>
+        <v>167523</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>189511</v>
+        <v>190137</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.8318942979222924</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.7710127451035457</v>
+        <v>0.7757009547010464</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.8775171724726483</v>
+        <v>0.8804161721883584</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>400</v>
@@ -786,19 +786,19 @@
         <v>410907</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>387252</v>
+        <v>388940</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>431459</v>
+        <v>432678</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.719788553921378</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.6783509338749858</v>
+        <v>0.6813088547264563</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.7557897623718085</v>
+        <v>0.7579239307324954</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>71660</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>56519</v>
+        <v>57636</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>88189</v>
+        <v>87994</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2019098202656337</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1592485187248518</v>
+        <v>0.1623970149689747</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2484826338766587</v>
+        <v>0.2479332705536924</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>24</v>
@@ -836,19 +836,19 @@
         <v>24567</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>16524</v>
+        <v>16082</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>35642</v>
+        <v>34479</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1137552170203277</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.07651239586552458</v>
+        <v>0.07446527830991884</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1650358045679338</v>
+        <v>0.1596537227992803</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>92</v>
@@ -857,19 +857,19 @@
         <v>96227</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>78807</v>
+        <v>78434</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>115823</v>
+        <v>115177</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1685606275544086</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1380461407629358</v>
+        <v>0.1373939423793617</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2028887253717597</v>
+        <v>0.2017558389306295</v>
       </c>
     </row>
     <row r="6">
@@ -886,19 +886,19 @@
         <v>41739</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>30314</v>
+        <v>30973</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>55331</v>
+        <v>55264</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1176047422575455</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.08541213921562887</v>
+        <v>0.08726974137232939</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1559023359007125</v>
+        <v>0.1557138902319339</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>6</v>
@@ -907,19 +907,19 @@
         <v>6870</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>2970</v>
+        <v>2670</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>14909</v>
+        <v>15198</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.03181111733473737</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.0137509620662894</v>
+        <v>0.01236108433525121</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.06903649335700018</v>
+        <v>0.07037163010534722</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>47</v>
@@ -928,19 +928,19 @@
         <v>48609</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>35651</v>
+        <v>35528</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>62449</v>
+        <v>62740</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.0851487158492179</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.06244996387193518</v>
+        <v>0.06223386428234723</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.109391564740161</v>
+        <v>0.1099017445502363</v>
       </c>
     </row>
     <row r="7">
@@ -957,19 +957,19 @@
         <v>10262</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>4813</v>
+        <v>4869</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>18050</v>
+        <v>18162</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.02891343415306837</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.01356133929036664</v>
+        <v>0.01371847010397899</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.05085670376832128</v>
+        <v>0.0511728568373696</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>4</v>
@@ -978,19 +978,19 @@
         <v>4868</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>1029</v>
+        <v>1186</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>12165</v>
+        <v>13383</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.02253936772264247</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.004762720353241567</v>
+        <v>0.005490044053131715</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.0563305617387443</v>
+        <v>0.06197008066737006</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>14</v>
@@ -999,19 +999,19 @@
         <v>15129</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>8080</v>
+        <v>7792</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>24743</v>
+        <v>24221</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.02650210267499558</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.01415409665627098</v>
+        <v>0.01364966836862517</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.04334290583267081</v>
+        <v>0.04242864983147322</v>
       </c>
     </row>
     <row r="8">
@@ -1103,19 +1103,19 @@
         <v>182879</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>166896</v>
+        <v>166424</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>198737</v>
+        <v>199256</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.6775568580962705</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.6183397634952247</v>
+        <v>0.6165890618846983</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.7363094017347622</v>
+        <v>0.7382303801761417</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>203</v>
@@ -1124,19 +1124,19 @@
         <v>205268</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>193774</v>
+        <v>194868</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>214359</v>
+        <v>213832</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.8813927306392372</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.8320396471673238</v>
+        <v>0.8367388049371259</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.9204284455399772</v>
+        <v>0.918169253002311</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>377</v>
@@ -1145,19 +1145,19 @@
         <v>388147</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>369528</v>
+        <v>368504</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>406921</v>
+        <v>407049</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.7719707056275955</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.7349402317518168</v>
+        <v>0.7329034717746932</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.8093089619781171</v>
+        <v>0.8095649224083722</v>
       </c>
     </row>
     <row r="10">
@@ -1174,19 +1174,19 @@
         <v>48580</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>36561</v>
+        <v>36453</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>63281</v>
+        <v>62435</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1799874349914914</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1354575454372653</v>
+        <v>0.135057093572014</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2344509197059943</v>
+        <v>0.2313185205079624</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>21</v>
@@ -1195,19 +1195,19 @@
         <v>21616</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>13447</v>
+        <v>13823</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>31357</v>
+        <v>31583</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.09281719147222098</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.05774176694875362</v>
+        <v>0.05935587284872953</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1346420118889605</v>
+        <v>0.1356129382906403</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>66</v>
@@ -1216,19 +1216,19 @@
         <v>70197</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>55210</v>
+        <v>54407</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>86835</v>
+        <v>86543</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1396114306198269</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1098054101971857</v>
+        <v>0.1082081799744781</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1727025517177175</v>
+        <v>0.1721227805017372</v>
       </c>
     </row>
     <row r="11">
@@ -1245,19 +1245,19 @@
         <v>30398</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>19880</v>
+        <v>19781</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>42586</v>
+        <v>42789</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1126217008657943</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.07365481241277985</v>
+        <v>0.07328567097485146</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1577793456681258</v>
+        <v>0.1585290306278871</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>3</v>
@@ -1266,19 +1266,19 @@
         <v>2946</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>934</v>
+        <v>930</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>8375</v>
+        <v>7984</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.01264947005283949</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.004010939658031353</v>
+        <v>0.003994446793537414</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.03596011127833078</v>
+        <v>0.03428065103152747</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>31</v>
@@ -1287,19 +1287,19 @@
         <v>33344</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>23222</v>
+        <v>23345</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>46771</v>
+        <v>47407</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.06631599991342073</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.04618635044863825</v>
+        <v>0.04642984439713509</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.09302122232575723</v>
+        <v>0.09428520424797948</v>
       </c>
     </row>
     <row r="12">
@@ -1316,19 +1316,19 @@
         <v>8052</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>3552</v>
+        <v>3570</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>15978</v>
+        <v>15995</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.02983400604644381</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.01315894282029101</v>
+        <v>0.01322729744526465</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.05919878373431876</v>
+        <v>0.05925881395744675</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>3</v>
@@ -1337,19 +1337,19 @@
         <v>3060</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>998</v>
+        <v>996</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>7316</v>
+        <v>9062</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.01314060783570241</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.004283474897299542</v>
+        <v>0.004277444882122439</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.03141390592799984</v>
+        <v>0.03891129545459734</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>11</v>
@@ -1358,19 +1358,19 @@
         <v>11113</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>5786</v>
+        <v>5747</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>19423</v>
+        <v>19963</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.02210186383915687</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.01150747274463944</v>
+        <v>0.01142925086913913</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.03862879043958985</v>
+        <v>0.03970274434523575</v>
       </c>
     </row>
     <row r="13">
@@ -1462,19 +1462,19 @@
         <v>124613</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>106163</v>
+        <v>105610</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>145036</v>
+        <v>142813</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.3271359652825266</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.2787026546134017</v>
+        <v>0.2772501494531444</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.3807521288975643</v>
+        <v>0.3749163761179516</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>27</v>
@@ -1483,19 +1483,19 @@
         <v>28013</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>19947</v>
+        <v>20487</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>35313</v>
+        <v>34906</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.4930451483817738</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.3510778939001334</v>
+        <v>0.3605853012703236</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.6215370767673013</v>
+        <v>0.6143618899799472</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>147</v>
@@ -1504,19 +1504,19 @@
         <v>152625</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>132549</v>
+        <v>131202</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>174011</v>
+        <v>172294</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.3486701373533744</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.3028050363789621</v>
+        <v>0.299728001580931</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.3975249519566246</v>
+        <v>0.3936030530106588</v>
       </c>
     </row>
     <row r="15">
@@ -1533,19 +1533,19 @@
         <v>103013</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>85665</v>
+        <v>86893</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>121440</v>
+        <v>122266</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.2704317232630574</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.2248895580145051</v>
+        <v>0.2281140739269102</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.3188078222112537</v>
+        <v>0.320976761884603</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>15</v>
@@ -1554,19 +1554,19 @@
         <v>16213</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>10350</v>
+        <v>10314</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>23850</v>
+        <v>23466</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.2853518790528616</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.1821711768595923</v>
+        <v>0.1815382429551008</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.4197848855410696</v>
+        <v>0.4130139572453062</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>114</v>
@@ -1575,19 +1575,19 @@
         <v>119225</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>99657</v>
+        <v>101256</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>138517</v>
+        <v>139079</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.2723682839530663</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.2276644165333676</v>
+        <v>0.231317924136719</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.3164402802996727</v>
+        <v>0.3177238428754436</v>
       </c>
     </row>
     <row r="16">
@@ -1604,19 +1604,19 @@
         <v>120865</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>103894</v>
+        <v>104032</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>140108</v>
+        <v>140597</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.3172983802076754</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2727447785147699</v>
+        <v>0.2731081315909403</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3678134585995987</v>
+        <v>0.3690986724769277</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>10</v>
@@ -1625,19 +1625,19 @@
         <v>9739</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>4845</v>
+        <v>5447</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>16119</v>
+        <v>16959</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1714116611270835</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.08527905579045787</v>
+        <v>0.09586702610831244</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2836997725352588</v>
+        <v>0.2984811007952134</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>126</v>
@@ -1646,19 +1646,19 @@
         <v>130604</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>108952</v>
+        <v>111320</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>150137</v>
+        <v>150633</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2983630226051152</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2488988643682013</v>
+        <v>0.2543090159879477</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3429845200454593</v>
+        <v>0.3441194475059047</v>
       </c>
     </row>
     <row r="17">
@@ -1675,19 +1675,19 @@
         <v>32429</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>23493</v>
+        <v>22706</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>45906</v>
+        <v>45082</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.08513393124674057</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.06167549552730889</v>
+        <v>0.05960803965003041</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1205139489088349</v>
+        <v>0.1183507778872737</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>3</v>
@@ -1696,19 +1696,19 @@
         <v>2852</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>913</v>
+        <v>922</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>7020</v>
+        <v>7861</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.05019131143828111</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.01606132487558466</v>
+        <v>0.0162347100518426</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1235588752760392</v>
+        <v>0.138359008657866</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>35</v>
@@ -1717,19 +1717,19 @@
         <v>35281</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>25121</v>
+        <v>24947</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>47998</v>
+        <v>48355</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.08059855608844416</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.05738937042854299</v>
+        <v>0.05699196419914299</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1096501010898167</v>
+        <v>0.1104666939738884</v>
       </c>
     </row>
     <row r="18">
@@ -1821,19 +1821,19 @@
         <v>245022</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>221066</v>
+        <v>219198</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>275037</v>
+        <v>271624</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.3468807532313975</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.3129647972282703</v>
+        <v>0.3103205770039733</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.3893731001868769</v>
+        <v>0.3845407188037331</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>196</v>
@@ -1842,19 +1842,19 @@
         <v>204282</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>186200</v>
+        <v>187439</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>219682</v>
+        <v>221988</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.6704764577429515</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.6111276031686316</v>
+        <v>0.615195246674747</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.7210204694867861</v>
+        <v>0.7285893550792041</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>433</v>
@@ -1863,19 +1863,19 @@
         <v>449304</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>418872</v>
+        <v>416433</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>483094</v>
+        <v>482200</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.4443977461881763</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.4142981860898874</v>
+        <v>0.4118852961685711</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.4778188812369877</v>
+        <v>0.4769339406335945</v>
       </c>
     </row>
     <row r="20">
@@ -1892,19 +1892,19 @@
         <v>154739</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>131665</v>
+        <v>132439</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>177477</v>
+        <v>175887</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.2190653270328734</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1863998728402105</v>
+        <v>0.1874951115657121</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.2512556337507718</v>
+        <v>0.2490046013557043</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>63</v>
@@ -1913,19 +1913,19 @@
         <v>70593</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>56332</v>
+        <v>55775</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>87399</v>
+        <v>87371</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.2316944126858538</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.1848862389859724</v>
+        <v>0.1830609980709631</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.2868525208301761</v>
+        <v>0.2867604371782382</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>211</v>
@@ -1934,19 +1934,19 @@
         <v>225332</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>197469</v>
+        <v>197146</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>253774</v>
+        <v>250912</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.2228711577021377</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1953121531156441</v>
+        <v>0.1949933738158013</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.2510023562728684</v>
+        <v>0.2481714882758008</v>
       </c>
     </row>
     <row r="21">
@@ -1963,19 +1963,19 @@
         <v>230013</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>205566</v>
+        <v>205221</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>257177</v>
+        <v>255549</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.3256324946945275</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.2910225076553072</v>
+        <v>0.2905335395817907</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.3640885307263488</v>
+        <v>0.3617833377514429</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>20</v>
@@ -1984,19 +1984,19 @@
         <v>20514</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>13075</v>
+        <v>12745</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>30764</v>
+        <v>30592</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.06732881388471955</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.04291301686732232</v>
+        <v>0.04183083929996172</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.1009722348518798</v>
+        <v>0.1004051779374467</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>239</v>
@@ -2005,19 +2005,19 @@
         <v>250527</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>224459</v>
+        <v>224704</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>278382</v>
+        <v>278544</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.2477915410877385</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.2220074423287365</v>
+        <v>0.2222499733439137</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.2753414593760577</v>
+        <v>0.275502227278935</v>
       </c>
     </row>
     <row r="22">
@@ -2034,19 +2034,19 @@
         <v>76584</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>60841</v>
+        <v>61982</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>94308</v>
+        <v>95233</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1084214250412016</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.08613263943974886</v>
+        <v>0.08774872656138358</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1335127826385668</v>
+        <v>0.1348217157597893</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>9</v>
@@ -2055,19 +2055,19 @@
         <v>9293</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>4260</v>
+        <v>4452</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>16978</v>
+        <v>16807</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.03050031568647521</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.01398194233123345</v>
+        <v>0.01461222249923718</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.05572517406034461</v>
+        <v>0.05516358804264714</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>83</v>
@@ -2076,19 +2076,19 @@
         <v>85877</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>69052</v>
+        <v>68801</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>105270</v>
+        <v>104967</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.08493955502194757</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.06829814151141907</v>
+        <v>0.06804935465851519</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1041207100509676</v>
+        <v>0.1038211407217332</v>
       </c>
     </row>
     <row r="23">
@@ -2180,19 +2180,19 @@
         <v>52413</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>39839</v>
+        <v>40392</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>64465</v>
+        <v>66068</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.2832059496171934</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.215265224300645</v>
+        <v>0.2182520235282929</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.348329523160006</v>
+        <v>0.3569931560110694</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>114</v>
@@ -2201,19 +2201,19 @@
         <v>126809</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>111524</v>
+        <v>113483</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>141730</v>
+        <v>142222</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.5974041302020722</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.525395473804617</v>
+        <v>0.5346245070347136</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.66769922879323</v>
+        <v>0.6700197925106016</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>162</v>
@@ -2222,19 +2222,19 @@
         <v>179221</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>157827</v>
+        <v>157783</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>198412</v>
+        <v>199632</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.4510584088414488</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.3972138150788455</v>
+        <v>0.3971029156895347</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.4993580722875731</v>
+        <v>0.5024279774673732</v>
       </c>
     </row>
     <row r="25">
@@ -2251,19 +2251,19 @@
         <v>29399</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>19742</v>
+        <v>20108</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>40079</v>
+        <v>40668</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1588549928564468</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1066749187793379</v>
+        <v>0.1086515417623004</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2165604883218883</v>
+        <v>0.2197434167408389</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>36</v>
@@ -2272,19 +2272,19 @@
         <v>38588</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>27709</v>
+        <v>27576</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>52509</v>
+        <v>51342</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1817885680580918</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1305384488429647</v>
+        <v>0.1299120842838309</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2473738854000679</v>
+        <v>0.2418742895493914</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>63</v>
@@ -2293,19 +2293,19 @@
         <v>67987</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>54412</v>
+        <v>52532</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>85258</v>
+        <v>83600</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1711066774118276</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1369433616081327</v>
+        <v>0.1322098371249852</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2145739893375929</v>
+        <v>0.2104020509410932</v>
       </c>
     </row>
     <row r="26">
@@ -2322,19 +2322,19 @@
         <v>70031</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>55885</v>
+        <v>56322</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>84708</v>
+        <v>84281</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.3784072405515302</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.3019694656238752</v>
+        <v>0.3043314890049867</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.4577122252730105</v>
+        <v>0.4554025701922527</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>28</v>
@@ -2343,19 +2343,19 @@
         <v>28232</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>19226</v>
+        <v>19357</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>40206</v>
+        <v>39482</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.1330020112220602</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.09057613452370386</v>
+        <v>0.09119322856106306</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.1894112912261502</v>
+        <v>0.1860020768010473</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>92</v>
@@ -2364,19 +2364,19 @@
         <v>98263</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>81354</v>
+        <v>80416</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>117087</v>
+        <v>117326</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.2473056817431202</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.2047496925204325</v>
+        <v>0.2023873758121691</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.2946812749366483</v>
+        <v>0.2952811657094141</v>
       </c>
     </row>
     <row r="27">
@@ -2393,19 +2393,19 @@
         <v>33226</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>24454</v>
+        <v>22746</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>45735</v>
+        <v>44535</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.1795318169748295</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.1321321539906416</v>
+        <v>0.1229036252372307</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.2471247723688534</v>
+        <v>0.2406379107731262</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>18</v>
@@ -2414,19 +2414,19 @@
         <v>18638</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>11657</v>
+        <v>11484</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>28435</v>
+        <v>28268</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.08780529051777583</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.05491898129186487</v>
+        <v>0.05409996541690006</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.1339612012248485</v>
+        <v>0.133170581429965</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>51</v>
@@ -2435,19 +2435,19 @@
         <v>51864</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>38509</v>
+        <v>38905</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>65549</v>
+        <v>66544</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.1305292320036033</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.09691794219397527</v>
+        <v>0.09791487409520172</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.1649706307794336</v>
+        <v>0.1674748247620613</v>
       </c>
     </row>
     <row r="28">
@@ -2539,19 +2539,19 @@
         <v>836176</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>791333</v>
+        <v>789786</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>876630</v>
+        <v>883193</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.4407496720259963</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.417112717946433</v>
+        <v>0.416297365498425</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.4620730688173263</v>
+        <v>0.4655323485791236</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>715</v>
@@ -2560,19 +2560,19 @@
         <v>744029</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>711702</v>
+        <v>712872</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>771085</v>
+        <v>771462</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.727573846042354</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.6959624015702502</v>
+        <v>0.6971063426906655</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.7540319005317628</v>
+        <v>0.7544001275022898</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>1519</v>
@@ -2581,19 +2581,19 @@
         <v>1580205</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>1527614</v>
+        <v>1525767</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>1637226</v>
+        <v>1636427</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.5412061026901039</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.5231943481132688</v>
+        <v>0.5225615156731868</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.5607354028580416</v>
+        <v>0.5604615690366965</v>
       </c>
     </row>
     <row r="30">
@@ -2610,19 +2610,19 @@
         <v>407391</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>373436</v>
+        <v>373972</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>446695</v>
+        <v>444966</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.2147363950011561</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.1968384692625051</v>
+        <v>0.1971213466845667</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.2354535778733735</v>
+        <v>0.2345419863893946</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>159</v>
@@ -2631,19 +2631,19 @@
         <v>171576</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>151117</v>
+        <v>145697</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>201178</v>
+        <v>198134</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.1677816146390502</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.1477747494355255</v>
+        <v>0.1424748976333394</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.1967288971005069</v>
+        <v>0.1937525811927149</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>546</v>
@@ -2652,19 +2652,19 @@
         <v>578967</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>534957</v>
+        <v>536755</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>623261</v>
+        <v>627353</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.1982910948308668</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.1832181578282855</v>
+        <v>0.1838336675224938</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.2134614277930993</v>
+        <v>0.2148627255154093</v>
       </c>
     </row>
     <row r="31">
@@ -2681,19 +2681,19 @@
         <v>493047</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>455574</v>
+        <v>449756</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>534655</v>
+        <v>529453</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.2598858730247025</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.2401335499426842</v>
+        <v>0.2370672203824113</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.2818174875021096</v>
+        <v>0.2790756304739087</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>67</v>
@@ -2702,19 +2702,19 @@
         <v>68301</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>52717</v>
+        <v>53231</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>85471</v>
+        <v>85914</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.06679002926427934</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.05155147696293647</v>
+        <v>0.05205361874376292</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.08358040212619056</v>
+        <v>0.08401412404413967</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>535</v>
@@ -2723,19 +2723,19 @@
         <v>561348</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>515226</v>
+        <v>520184</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>604610</v>
+        <v>604564</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.1922565690904391</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.1764602073600655</v>
+        <v>0.1781582688939479</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.2070736339424911</v>
+        <v>0.207057809466686</v>
       </c>
     </row>
     <row r="32">
@@ -2752,19 +2752,19 @@
         <v>160554</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>134614</v>
+        <v>137806</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>186776</v>
+        <v>188482</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.08462805994814507</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.07095539989382481</v>
+        <v>0.07263787864968052</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.09844990602250363</v>
+        <v>0.09934937074387357</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>37</v>
@@ -2773,19 +2773,19 @@
         <v>38711</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>27602</v>
+        <v>27721</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>53259</v>
+        <v>52846</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.03785451005431648</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.02699161600203293</v>
+        <v>0.0271075418337685</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.0520811652577659</v>
+        <v>0.05167756899482471</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>194</v>
@@ -2794,19 +2794,19 @@
         <v>199264</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>174998</v>
+        <v>173646</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>228623</v>
+        <v>227242</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.06824623338859016</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.0599353980424636</v>
+        <v>0.05947223918207807</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.07830150794986539</v>
+        <v>0.07782851466772701</v>
       </c>
     </row>
     <row r="33">
@@ -3139,19 +3139,19 @@
         <v>181997</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>163767</v>
+        <v>162091</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>198516</v>
+        <v>199191</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.6029612264803407</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.5425651604013577</v>
+        <v>0.5370128960694115</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.6576872157813556</v>
+        <v>0.6599232167869258</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>121</v>
@@ -3160,19 +3160,19 @@
         <v>133429</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>118597</v>
+        <v>119046</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>148050</v>
+        <v>146144</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.6863133424295255</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.6100208593577674</v>
+        <v>0.6123340622291928</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.7615171883361431</v>
+        <v>0.7517129240027931</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>289</v>
@@ -3181,19 +3181,19 @@
         <v>315426</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>288946</v>
+        <v>293450</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>335119</v>
+        <v>337353</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.635615557795175</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.5822546766008602</v>
+        <v>0.5913313950813937</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.6752992272752086</v>
+        <v>0.6798006938929442</v>
       </c>
     </row>
     <row r="5">
@@ -3210,19 +3210,19 @@
         <v>65739</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>52544</v>
+        <v>51696</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>81577</v>
+        <v>80975</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2177937124977943</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.174078325197585</v>
+        <v>0.1712688014692591</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2702679074720909</v>
+        <v>0.2682731784534573</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>40</v>
@@ -3231,19 +3231,19 @@
         <v>44917</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>32834</v>
+        <v>33772</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>58955</v>
+        <v>58223</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.231037779969936</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1688874568667175</v>
+        <v>0.1737138510534405</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.3032428481794235</v>
+        <v>0.29948150561516</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>105</v>
@@ -3252,19 +3252,19 @@
         <v>110656</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>94562</v>
+        <v>92998</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>132455</v>
+        <v>130231</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2229822570508203</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1905529202108152</v>
+        <v>0.1874004506263429</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2669112320147077</v>
+        <v>0.2624282991268633</v>
       </c>
     </row>
     <row r="6">
@@ -3281,19 +3281,19 @@
         <v>39051</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>27557</v>
+        <v>27552</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>52767</v>
+        <v>53470</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1293768588862768</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.09129759355023917</v>
+        <v>0.09127983358759498</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1748194745747273</v>
+        <v>0.1771477190286362</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>10</v>
@@ -3302,19 +3302,19 @@
         <v>10875</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>5983</v>
+        <v>5652</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>19964</v>
+        <v>19268</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.05593561977210752</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.03077620625460323</v>
+        <v>0.02907342567904464</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1026867994633535</v>
+        <v>0.09910856134918183</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>46</v>
@@ -3323,19 +3323,19 @@
         <v>49926</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>37354</v>
+        <v>37389</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>65479</v>
+        <v>66018</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1006052491089307</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.07527144691920601</v>
+        <v>0.07534310166025807</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1319471365763286</v>
+        <v>0.133033900749986</v>
       </c>
     </row>
     <row r="7">
@@ -3352,19 +3352,19 @@
         <v>15052</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>8084</v>
+        <v>8677</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>25313</v>
+        <v>26454</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.04986820213558829</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.02678313160563641</v>
+        <v>0.02874809990300786</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.08386175314629087</v>
+        <v>0.08764150482665196</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>5</v>
@@ -3373,19 +3373,19 @@
         <v>5193</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>2066</v>
+        <v>2004</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>11957</v>
+        <v>11532</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.02671325782843104</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.01062583055326458</v>
+        <v>0.01030899476495629</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.06150438574838234</v>
+        <v>0.05931436689953621</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>18</v>
@@ -3394,19 +3394,19 @@
         <v>20246</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>11744</v>
+        <v>11999</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>31659</v>
+        <v>32166</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.04079693604507408</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.02366539745008876</v>
+        <v>0.02417825683193866</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.06379591434650964</v>
+        <v>0.06481757967464875</v>
       </c>
     </row>
     <row r="8">
@@ -3498,19 +3498,19 @@
         <v>140546</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>122903</v>
+        <v>124104</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>159962</v>
+        <v>157493</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.5457402675811468</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.4772342668786475</v>
+        <v>0.481895955830896</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.6211360029922041</v>
+        <v>0.6115488352071443</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>111</v>
@@ -3519,19 +3519,19 @@
         <v>122373</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>108879</v>
+        <v>109032</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>132533</v>
+        <v>132978</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.732618732507041</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.6518322021270387</v>
+        <v>0.6527497407521099</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.7934467482864757</v>
+        <v>0.7961064316994068</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>234</v>
@@ -3540,19 +3540,19 @@
         <v>262919</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>241745</v>
+        <v>239731</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>282845</v>
+        <v>283804</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.619262974597984</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.5693926297217422</v>
+        <v>0.5646483594801939</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.6661953966885927</v>
+        <v>0.6684550124911219</v>
       </c>
     </row>
     <row r="10">
@@ -3569,19 +3569,19 @@
         <v>57750</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>44339</v>
+        <v>45321</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>74107</v>
+        <v>73923</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2242444913536554</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.172167379907416</v>
+        <v>0.1759835044885427</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2877565814082875</v>
+        <v>0.2870440746032871</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>27</v>
@@ -3590,19 +3590,19 @@
         <v>28122</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>20362</v>
+        <v>19758</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>41027</v>
+        <v>39524</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1683571794707215</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1219011762075841</v>
+        <v>0.118284786276391</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2456199215210508</v>
+        <v>0.2366197232267685</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>81</v>
@@ -3611,19 +3611,19 @@
         <v>85872</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>69402</v>
+        <v>68911</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>102293</v>
+        <v>103122</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2022570116343793</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1634648094224933</v>
+        <v>0.1623085668760582</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.240935323567754</v>
+        <v>0.2428881831111641</v>
       </c>
     </row>
     <row r="11">
@@ -3640,19 +3640,19 @@
         <v>46042</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>33435</v>
+        <v>33363</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>60700</v>
+        <v>60110</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1787819296638354</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1298274488475908</v>
+        <v>0.1295471010538108</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2357005822313408</v>
+        <v>0.2334094982712483</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>9</v>
@@ -3661,19 +3661,19 @@
         <v>11522</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>5702</v>
+        <v>5065</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>22012</v>
+        <v>20807</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.06897950447612432</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.03413851800454602</v>
+        <v>0.03032470090346436</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1317834577143462</v>
+        <v>0.1245663934664309</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>51</v>
@@ -3682,19 +3682,19 @@
         <v>57564</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>42931</v>
+        <v>43787</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>73644</v>
+        <v>75789</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.135582882946411</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1011179217056009</v>
+        <v>0.1031336501065635</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1734555914787275</v>
+        <v>0.1785085882667039</v>
       </c>
     </row>
     <row r="12">
@@ -3711,19 +3711,19 @@
         <v>13194</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>6967</v>
+        <v>7241</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>23327</v>
+        <v>23326</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.05123331140136237</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.02705459597782009</v>
+        <v>0.02811614957934367</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.0905778771937088</v>
+        <v>0.09057438127765054</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>5</v>
@@ -3732,19 +3732,19 @@
         <v>5018</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>1945</v>
+        <v>1972</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>12662</v>
+        <v>10862</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.03004458354611322</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.01164595318895276</v>
+        <v>0.01180782136855421</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.07580411570194132</v>
+        <v>0.06502607101889073</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>17</v>
@@ -3753,19 +3753,19 @@
         <v>18213</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>11167</v>
+        <v>10838</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>28366</v>
+        <v>28420</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.04289713082122576</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.02630241816138347</v>
+        <v>0.02552790598653225</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.06681257760982051</v>
+        <v>0.06693851198123558</v>
       </c>
     </row>
     <row r="13">
@@ -3857,19 +3857,19 @@
         <v>80776</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>66079</v>
+        <v>66681</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>96369</v>
+        <v>96560</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.2900189795359766</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.2372526512448242</v>
+        <v>0.239413995346141</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.3460051248168195</v>
+        <v>0.3466923890177455</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>59</v>
@@ -3878,19 +3878,19 @@
         <v>62913</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>51977</v>
+        <v>52119</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>72695</v>
+        <v>72727</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.5743359613960406</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.4744944732172788</v>
+        <v>0.4757927546053601</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.6636312953791085</v>
+        <v>0.6639210791963907</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>138</v>
@@ -3899,19 +3899,19 @@
         <v>143689</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>124359</v>
+        <v>126450</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>163846</v>
+        <v>162537</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.3702753602264512</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.3204626632420851</v>
+        <v>0.3258518897609909</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.4222181085117211</v>
+        <v>0.4188459132140112</v>
       </c>
     </row>
     <row r="15">
@@ -3928,19 +3928,19 @@
         <v>97396</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>82709</v>
+        <v>82916</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>114222</v>
+        <v>113306</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.3496921599372662</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.2969583812141732</v>
+        <v>0.2977042450132507</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.4101048482782396</v>
+        <v>0.4068176008993905</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>31</v>
@@ -3949,19 +3949,19 @@
         <v>32024</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>23471</v>
+        <v>23434</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>42175</v>
+        <v>42555</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.2923478033166322</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.2142629849291545</v>
+        <v>0.213931248905098</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.3850193232420838</v>
+        <v>0.3884835207399669</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>129</v>
@@ -3970,19 +3970,19 @@
         <v>129420</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>110468</v>
+        <v>110373</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>147994</v>
+        <v>147872</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.3335051193838423</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.2846672071448103</v>
+        <v>0.2844213752864784</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.3813679680530871</v>
+        <v>0.3810550099808854</v>
       </c>
     </row>
     <row r="16">
@@ -3999,19 +3999,19 @@
         <v>65564</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>51100</v>
+        <v>52507</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>80008</v>
+        <v>79873</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2354006545732137</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1834706757393128</v>
+        <v>0.1885234494724772</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2872619553952721</v>
+        <v>0.2867787996385001</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>6</v>
@@ -4020,19 +4020,19 @@
         <v>6423</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>3030</v>
+        <v>2329</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>13917</v>
+        <v>12919</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.05863818491003524</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.02765887490641296</v>
+        <v>0.02126303782092524</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1270496952097688</v>
+        <v>0.1179408305282271</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>68</v>
@@ -4041,19 +4041,19 @@
         <v>71987</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>57760</v>
+        <v>57140</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>89723</v>
+        <v>87194</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1855045281995215</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1488423001631024</v>
+        <v>0.1472450047296404</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2312093157580019</v>
+        <v>0.2246923488457943</v>
       </c>
     </row>
     <row r="17">
@@ -4070,19 +4070,19 @@
         <v>34784</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>24546</v>
+        <v>25135</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>47370</v>
+        <v>47921</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1248882059535434</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.08812870748156128</v>
+        <v>0.09024614221140273</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1700764182053593</v>
+        <v>0.1720567547528305</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>8</v>
@@ -4091,19 +4091,19 @@
         <v>8180</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3996</v>
+        <v>3903</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>15721</v>
+        <v>15341</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.07467805037729203</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.0364768690447565</v>
+        <v>0.03563488500498863</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1435205224816804</v>
+        <v>0.140049730753703</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>41</v>
@@ -4112,19 +4112,19 @@
         <v>42964</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>31442</v>
+        <v>31646</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>57333</v>
+        <v>56577</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.110714992190185</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.08102358479881654</v>
+        <v>0.08154819980625086</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1477425233015346</v>
+        <v>0.1457941650258651</v>
       </c>
     </row>
     <row r="18">
@@ -4216,19 +4216,19 @@
         <v>102950</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>85496</v>
+        <v>85604</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>121320</v>
+        <v>122855</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2440175365446136</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.2026471563962601</v>
+        <v>0.2029042367528268</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2875603833217187</v>
+        <v>0.291198767965509</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>178</v>
@@ -4237,19 +4237,19 @@
         <v>189799</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>172995</v>
+        <v>171533</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>206988</v>
+        <v>206305</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.6330227066375631</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.576979336170018</v>
+        <v>0.5721043534034911</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.6903528512821708</v>
+        <v>0.6880752981050253</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>272</v>
@@ -4258,19 +4258,19 @@
         <v>292748</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>267542</v>
+        <v>266850</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>321864</v>
+        <v>320583</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.4056237908345183</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.3706992715981642</v>
+        <v>0.3697406804847763</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.445967330177779</v>
+        <v>0.4441911565848246</v>
       </c>
     </row>
     <row r="20">
@@ -4287,19 +4287,19 @@
         <v>127055</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>108385</v>
+        <v>106795</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>146480</v>
+        <v>148191</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.3011530063570487</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.2569001791327387</v>
+        <v>0.2531317835938953</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.3471967851684822</v>
+        <v>0.3512508632640952</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>55</v>
@@ -4308,19 +4308,19 @@
         <v>58877</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>46409</v>
+        <v>45728</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>74731</v>
+        <v>74080</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1963676755695818</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.1547839253666171</v>
+        <v>0.1525146123996512</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.2492451956507171</v>
+        <v>0.2470743861858295</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>172</v>
@@ -4329,19 +4329,19 @@
         <v>185931</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>162252</v>
+        <v>161727</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>211872</v>
+        <v>212580</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.2576215417005637</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.2248117270728718</v>
+        <v>0.2240844074397847</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.2935650765225163</v>
+        <v>0.2945450228727179</v>
       </c>
     </row>
     <row r="21">
@@ -4358,19 +4358,19 @@
         <v>111284</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>93316</v>
+        <v>94036</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>130155</v>
+        <v>131818</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.2637718875210828</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.2211843409006991</v>
+        <v>0.2228906667810082</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.3085013131995207</v>
+        <v>0.3124423701512293</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>21</v>
@@ -4379,19 +4379,19 @@
         <v>21049</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>13125</v>
+        <v>12950</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>31657</v>
+        <v>30651</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.07020275329599641</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.04377479724852625</v>
+        <v>0.04319034401540989</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.1055841493141147</v>
+        <v>0.1022289330512173</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>129</v>
@@ -4400,19 +4400,19 @@
         <v>132332</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>111443</v>
+        <v>113387</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>153079</v>
+        <v>155371</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.1833565482576447</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.1544128430875853</v>
+        <v>0.1571064815940696</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.2121029192811237</v>
+        <v>0.2152780135974776</v>
       </c>
     </row>
     <row r="22">
@@ -4429,19 +4429,19 @@
         <v>80606</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>64389</v>
+        <v>65834</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>96915</v>
+        <v>99647</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1910575695772549</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1526185972839608</v>
+        <v>0.1560428459812056</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.229712942311919</v>
+        <v>0.2361904281811443</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>28</v>
@@ -4450,19 +4450,19 @@
         <v>30105</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>20821</v>
+        <v>20033</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>41409</v>
+        <v>41442</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1004068644968586</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.06944138773067349</v>
+        <v>0.06681453489211303</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1381093447714674</v>
+        <v>0.1382204186785359</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>106</v>
@@ -4471,19 +4471,19 @@
         <v>110711</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>91692</v>
+        <v>92357</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>131332</v>
+        <v>134779</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1533981192072733</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1270467578890498</v>
+        <v>0.1279672860461142</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1819705426233211</v>
+        <v>0.1867461211433127</v>
       </c>
     </row>
     <row r="23">
@@ -4575,19 +4575,19 @@
         <v>7813</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>3614</v>
+        <v>3049</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>14526</v>
+        <v>14409</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.05142011408807165</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.02378594683271946</v>
+        <v>0.02007091205828581</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.09560405110389714</v>
+        <v>0.09483673027999552</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>75</v>
@@ -4596,19 +4596,19 @@
         <v>82011</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>68122</v>
+        <v>68960</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>95476</v>
+        <v>97456</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.4719392270393065</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.3920150040413122</v>
+        <v>0.3968347829108502</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.5494244017803911</v>
+        <v>0.5608188100802098</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>83</v>
@@ -4617,19 +4617,19 @@
         <v>89824</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>74251</v>
+        <v>73701</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>106874</v>
+        <v>106504</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.2757781064069184</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.2279663924713703</v>
+        <v>0.2262792510530572</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.3281261697353101</v>
+        <v>0.3269905047443213</v>
       </c>
     </row>
     <row r="25">
@@ -4646,19 +4646,19 @@
         <v>33873</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>24379</v>
+        <v>24239</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>45397</v>
+        <v>44127</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2229466357960095</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1604575457307995</v>
+        <v>0.1595366827257292</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2987900198046515</v>
+        <v>0.2904318508474901</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>54</v>
@@ -4667,19 +4667,19 @@
         <v>59515</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>46615</v>
+        <v>45684</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>72828</v>
+        <v>71769</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.342484047374272</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.2682465001624116</v>
+        <v>0.2628924558308248</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.419093048028176</v>
+        <v>0.4130021095332521</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>87</v>
@@ -4688,19 +4688,19 @@
         <v>93389</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>77580</v>
+        <v>79173</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>110719</v>
+        <v>113230</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2867229847007517</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.2381886733710784</v>
+        <v>0.2430795039107647</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.3399317630368664</v>
+        <v>0.3476412587374547</v>
       </c>
     </row>
     <row r="26">
@@ -4717,19 +4717,19 @@
         <v>47213</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>36608</v>
+        <v>37125</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>58949</v>
+        <v>59715</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.3107473587354558</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.2409455430193415</v>
+        <v>0.2443464543835844</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.3879912633204558</v>
+        <v>0.393028740050138</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>12</v>
@@ -4738,19 +4738,19 @@
         <v>13007</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>7118</v>
+        <v>7648</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>21353</v>
+        <v>21891</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.07485057950485716</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.04095958531574714</v>
+        <v>0.04401049585352269</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.1228798404988252</v>
+        <v>0.1259715429005673</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>57</v>
@@ -4759,19 +4759,19 @@
         <v>60221</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>47231</v>
+        <v>45683</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>75194</v>
+        <v>75922</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.1848902308364992</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.1450105438798164</v>
+        <v>0.1402568981002388</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.2308627916892893</v>
+        <v>0.2330963114625926</v>
       </c>
     </row>
     <row r="27">
@@ -4788,19 +4788,19 @@
         <v>63036</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>49870</v>
+        <v>50068</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>75233</v>
+        <v>75335</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.4148858913804631</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.3282342875604518</v>
+        <v>0.3295366989871155</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.4951672507402549</v>
+        <v>0.4958395194741883</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>17</v>
@@ -4809,19 +4809,19 @@
         <v>19241</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>12035</v>
+        <v>11720</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>30369</v>
+        <v>30073</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.1107261460815643</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.06925865370940926</v>
+        <v>0.06744586947623012</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.1747615266183793</v>
+        <v>0.1730598657203782</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>74</v>
@@ -4830,19 +4830,19 @@
         <v>82277</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>66385</v>
+        <v>66104</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>99725</v>
+        <v>98915</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.2526086780558307</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.2038176377558319</v>
+        <v>0.2029528981763044</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.3061785270567934</v>
+        <v>0.3036918838206732</v>
       </c>
     </row>
     <row r="28">
@@ -4934,19 +4934,19 @@
         <v>514081</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>475911</v>
+        <v>479828</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>550716</v>
+        <v>551213</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.3641521593359334</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.3371142845822016</v>
+        <v>0.3398893299570261</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.39010293131729</v>
+        <v>0.3904553143461196</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>544</v>
@@ -4955,19 +4955,19 @@
         <v>590525</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>561815</v>
+        <v>560379</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>619775</v>
+        <v>620068</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.6251628614299949</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.5947686118144572</v>
+        <v>0.5932487530049827</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.6561281807582702</v>
+        <v>0.6564390388687895</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>1016</v>
@@ -4976,19 +4976,19 @@
         <v>1104606</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>1047573</v>
+        <v>1055349</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>1150268</v>
+        <v>1155312</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.4687855635551369</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.4445812182021868</v>
+        <v>0.4478814886657503</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.488164269171682</v>
+        <v>0.4903048130148757</v>
       </c>
     </row>
     <row r="30">
@@ -5005,19 +5005,19 @@
         <v>381813</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>346832</v>
+        <v>347058</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>415948</v>
+        <v>416847</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.2704594513734969</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.2456806889348093</v>
+        <v>0.2458407595556581</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.294639401818371</v>
+        <v>0.2952759820855298</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>207</v>
@@ -5026,19 +5026,19 @@
         <v>223454</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>200137</v>
+        <v>199757</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>250093</v>
+        <v>250892</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.2365613707532471</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.211876422536367</v>
+        <v>0.2114743727515033</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.2647622470729861</v>
+        <v>0.2656080321235591</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>574</v>
@@ -5047,19 +5047,19 @@
         <v>605267</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>559115</v>
+        <v>561954</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>649922</v>
+        <v>646472</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.256870462326927</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.2372836626266176</v>
+        <v>0.2384888906398585</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.2758215681823123</v>
+        <v>0.2743576470964534</v>
       </c>
     </row>
     <row r="31">
@@ -5076,19 +5076,19 @@
         <v>309154</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>279761</v>
+        <v>281035</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>346553</v>
+        <v>342338</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.2189910349618094</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.1981706641856288</v>
+        <v>0.1990731264234466</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.2454831181571125</v>
+        <v>0.2424969726342665</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>58</v>
@@ -5097,19 +5097,19 @@
         <v>62876</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>49139</v>
+        <v>46759</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>80502</v>
+        <v>80533</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.06656396972697094</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.05202111734185822</v>
+        <v>0.04950126900898004</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.08522399611052321</v>
+        <v>0.08525647776554707</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>351</v>
@@ -5118,19 +5118,19 @@
         <v>372030</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>337599</v>
+        <v>336656</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>406473</v>
+        <v>410539</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.1578864036087388</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.1432741479802146</v>
+        <v>0.1428742170070969</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.1725039233092108</v>
+        <v>0.1742296031752397</v>
       </c>
     </row>
     <row r="32">
@@ -5147,19 +5147,19 @@
         <v>206672</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>178607</v>
+        <v>179297</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>233646</v>
+        <v>236930</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.1463973543287602</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.1265175360372919</v>
+        <v>0.1270062956707945</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.165504624820884</v>
+        <v>0.1678308173107731</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>63</v>
@@ -5168,19 +5168,19 @@
         <v>67739</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>53084</v>
+        <v>53491</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>85782</v>
+        <v>85307</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.07171179808978705</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.05619760800805674</v>
+        <v>0.05662900800687332</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.09081351400490535</v>
+        <v>0.09031077697519171</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>256</v>
@@ -5189,19 +5189,19 @@
         <v>274410</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>244407</v>
+        <v>243515</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>306992</v>
+        <v>308102</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.1164575705091973</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.1037241448795931</v>
+        <v>0.103345972297002</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.1302848906311939</v>
+        <v>0.1307557939418828</v>
       </c>
     </row>
     <row r="33">
@@ -5534,19 +5534,19 @@
         <v>146185</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>128789</v>
+        <v>129898</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>164757</v>
+        <v>164351</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.5333026084987669</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.4698399449140981</v>
+        <v>0.4738854128097517</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.6010565439938254</v>
+        <v>0.5995755911807343</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>133</v>
@@ -5555,19 +5555,19 @@
         <v>134602</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>119276</v>
+        <v>120209</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>148592</v>
+        <v>148158</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.6311268174538103</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.5592660194117909</v>
+        <v>0.5636395942253818</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.6967208240271678</v>
+        <v>0.6946850949436283</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>265</v>
@@ -5576,19 +5576,19 @@
         <v>280786</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>256395</v>
+        <v>257520</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>303468</v>
+        <v>303160</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.5761091494413231</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.5260633909207764</v>
+        <v>0.5283713305449954</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.622645693454331</v>
+        <v>0.6220144323508827</v>
       </c>
     </row>
     <row r="5">
@@ -5605,19 +5605,19 @@
         <v>83929</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>68416</v>
+        <v>70520</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>100198</v>
+        <v>101190</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.306184139114579</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2495932082236444</v>
+        <v>0.2572684068268668</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3655349307708803</v>
+        <v>0.3691570606801257</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>52</v>
@@ -5626,19 +5626,19 @@
         <v>53532</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>41114</v>
+        <v>42199</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>67139</v>
+        <v>67172</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.251002857382302</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.192774134670904</v>
+        <v>0.1978652372795255</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.3148031240476238</v>
+        <v>0.3149586012021489</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>130</v>
@@ -5647,19 +5647,19 @@
         <v>137461</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>117346</v>
+        <v>118817</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>158888</v>
+        <v>159897</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2820375620968084</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2407680241872277</v>
+        <v>0.2437848201618798</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.3260022827283496</v>
+        <v>0.3280721992116754</v>
       </c>
     </row>
     <row r="6">
@@ -5676,19 +5676,19 @@
         <v>28190</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>19109</v>
+        <v>18718</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>40195</v>
+        <v>38543</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1028404948191158</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.06971243137470545</v>
+        <v>0.06828759893631221</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1466386121764906</v>
+        <v>0.1406099906581837</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>15</v>
@@ -5697,19 +5697,19 @@
         <v>17128</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>10221</v>
+        <v>10033</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>28116</v>
+        <v>27584</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.08030807320295359</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.04792604734045662</v>
+        <v>0.04704073091885833</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1318321876474218</v>
+        <v>0.1293378434772775</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>41</v>
@@ -5718,19 +5718,19 @@
         <v>45317</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>32879</v>
+        <v>32118</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>58350</v>
+        <v>59332</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.0929806141336461</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.06745960382003659</v>
+        <v>0.06589956293641838</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1197199032338263</v>
+        <v>0.1217350888172649</v>
       </c>
     </row>
     <row r="7">
@@ -5747,19 +5747,19 @@
         <v>15809</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>8886</v>
+        <v>8644</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>25843</v>
+        <v>25048</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.05767275756753837</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.03241588428787387</v>
+        <v>0.03153460005211579</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.09427922979677449</v>
+        <v>0.09137935271558886</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>8</v>
@@ -5768,19 +5768,19 @@
         <v>8011</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>3857</v>
+        <v>3920</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>15606</v>
+        <v>14667</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.03756225196093412</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.01808578544468663</v>
+        <v>0.01837839016112552</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.07317468423072716</v>
+        <v>0.06876996933669312</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>22</v>
@@ -5789,19 +5789,19 @@
         <v>23820</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>14789</v>
+        <v>15593</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>35794</v>
+        <v>36159</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.0488726743282225</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.03034372677856081</v>
+        <v>0.03199372582810359</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.07344172357383116</v>
+        <v>0.07419087802155172</v>
       </c>
     </row>
     <row r="8">
@@ -5896,16 +5896,16 @@
         <v>96489</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>130768</v>
+        <v>129239</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.4672435643056878</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.3981998674468849</v>
+        <v>0.3981991146900424</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.5396636313892085</v>
+        <v>0.5333520135466967</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>110</v>
@@ -5914,19 +5914,19 @@
         <v>115037</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>101497</v>
+        <v>100827</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>129082</v>
+        <v>129527</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.608095513966415</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.536523639393033</v>
+        <v>0.5329811682807057</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.6823379593306291</v>
+        <v>0.6846917274866164</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>214</v>
@@ -5935,19 +5935,19 @@
         <v>228257</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>206429</v>
+        <v>204770</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>247431</v>
+        <v>247555</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.5289965066244449</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.4784091498414957</v>
+        <v>0.4745644456722447</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.5734344421717683</v>
+        <v>0.5737202703513727</v>
       </c>
     </row>
     <row r="10">
@@ -5964,19 +5964,19 @@
         <v>56587</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>43138</v>
+        <v>43380</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>71446</v>
+        <v>70738</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2335263570041249</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1780254558524212</v>
+        <v>0.1790226736786768</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.294850511608196</v>
+        <v>0.2919286319666652</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>42</v>
@@ -5985,19 +5985,19 @@
         <v>43374</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>32185</v>
+        <v>32143</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>55972</v>
+        <v>55519</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2292800591939156</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1701350906178352</v>
+        <v>0.1699101660630078</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2958738121073486</v>
+        <v>0.2934758429710169</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>93</v>
@@ -6006,19 +6006,19 @@
         <v>99961</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>83109</v>
+        <v>83128</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>119182</v>
+        <v>120222</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2316646761088747</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1926085728139997</v>
+        <v>0.192653904150108</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2762099839896368</v>
+        <v>0.2786202050493103</v>
       </c>
     </row>
     <row r="11">
@@ -6035,19 +6035,19 @@
         <v>51929</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>40351</v>
+        <v>39807</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>65665</v>
+        <v>66466</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.2143030038605759</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.16652462484608</v>
+        <v>0.1642786115992585</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2709914386205097</v>
+        <v>0.2742988041984773</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>21</v>
@@ -6056,19 +6056,19 @@
         <v>21938</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>13297</v>
+        <v>14456</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>31326</v>
+        <v>33247</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1159680053412778</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.07029143234416035</v>
+        <v>0.0764163768980065</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1655936238506554</v>
+        <v>0.1757462354343486</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>70</v>
@@ -6077,19 +6077,19 @@
         <v>73867</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>57504</v>
+        <v>58662</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>89649</v>
+        <v>91051</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1711905335958463</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1332690562458866</v>
+        <v>0.1359510521301904</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.2077654141446093</v>
+        <v>0.2110146448489117</v>
       </c>
     </row>
     <row r="12">
@@ -6106,19 +6106,19 @@
         <v>20579</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>12938</v>
+        <v>12358</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>31397</v>
+        <v>31297</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.08492707482961148</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.05339262839777418</v>
+        <v>0.05100187164181907</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1295721998533808</v>
+        <v>0.1291602383400854</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>9</v>
@@ -6127,19 +6127,19 @@
         <v>8826</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>4015</v>
+        <v>3953</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>16370</v>
+        <v>15420</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.04665642149839166</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.02122112586977867</v>
+        <v>0.02089348072398163</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.08653312403391104</v>
+        <v>0.08151030356782477</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>27</v>
@@ -6148,19 +6148,19 @@
         <v>29405</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>19812</v>
+        <v>19431</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>42224</v>
+        <v>43039</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.06814828367083409</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.04591540291808504</v>
+        <v>0.04503311805879077</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.09785544620318988</v>
+        <v>0.09974498811406868</v>
       </c>
     </row>
     <row r="13">
@@ -6252,19 +6252,19 @@
         <v>60270</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>46949</v>
+        <v>47622</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>74781</v>
+        <v>74172</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.2806725055360274</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.2186368183560134</v>
+        <v>0.2217683255222744</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.348244907176768</v>
+        <v>0.345412276813825</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>41</v>
@@ -6273,19 +6273,19 @@
         <v>40851</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>32567</v>
+        <v>32630</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>48345</v>
+        <v>48383</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.6273435072759794</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.5001183610289466</v>
+        <v>0.5010918445310513</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7424235013879376</v>
+        <v>0.7429997335851695</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>98</v>
@@ -6294,19 +6294,19 @@
         <v>101121</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>84804</v>
+        <v>85967</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>117097</v>
+        <v>117074</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.3613378840694356</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.303029483748378</v>
+        <v>0.30718462409193</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.4184235387882715</v>
+        <v>0.4183393328715203</v>
       </c>
     </row>
     <row r="15">
@@ -6323,19 +6323,19 @@
         <v>83868</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>69933</v>
+        <v>70147</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>98627</v>
+        <v>98296</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.3905620311345477</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.3256695343341725</v>
+        <v>0.3266668444978941</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.459292204314191</v>
+        <v>0.4577506953165832</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>18</v>
@@ -6344,19 +6344,19 @@
         <v>19522</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>12275</v>
+        <v>12849</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>27906</v>
+        <v>28002</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.2997941806338192</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.1884966346057077</v>
+        <v>0.1973184540306412</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.4285422004343622</v>
+        <v>0.4300145077801864</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>97</v>
@@ -6365,19 +6365,19 @@
         <v>103389</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>87562</v>
+        <v>88338</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>119586</v>
+        <v>120374</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.3694416519203745</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.312886742221236</v>
+        <v>0.3156569218886495</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.4273155472055782</v>
+        <v>0.4301337554213781</v>
       </c>
     </row>
     <row r="16">
@@ -6394,19 +6394,19 @@
         <v>50169</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>39112</v>
+        <v>37151</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>63685</v>
+        <v>63134</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.233633223418115</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1821419128548583</v>
+        <v>0.1730083137607605</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2965730723466409</v>
+        <v>0.2940052606788687</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>4</v>
@@ -6415,19 +6415,19 @@
         <v>3815</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>944</v>
+        <v>935</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>9029</v>
+        <v>8729</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.05859271837769519</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.0145033758388433</v>
+        <v>0.01436423957723433</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1386499255519291</v>
+        <v>0.1340424854332284</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>52</v>
@@ -6436,19 +6436,19 @@
         <v>53985</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>41400</v>
+        <v>42024</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>68239</v>
+        <v>68830</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.192903804092884</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1479352831567731</v>
+        <v>0.1501650534783505</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.243837259728537</v>
+        <v>0.2459518791951184</v>
       </c>
     </row>
     <row r="17">
@@ -6465,19 +6465,19 @@
         <v>20428</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>12432</v>
+        <v>11999</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>31196</v>
+        <v>30110</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.09513223991130987</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.05789433128860667</v>
+        <v>0.05587778365004104</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1452756158717982</v>
+        <v>0.1402188958928533</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>1</v>
@@ -6489,7 +6489,7 @@
         <v>0</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>4798</v>
+        <v>4789</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.01426959371250611</v>
@@ -6498,7 +6498,7 @@
         <v>0</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.07368459636809056</v>
+        <v>0.07353890989331589</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>19</v>
@@ -6507,19 +6507,19 @@
         <v>21357</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>12985</v>
+        <v>12962</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>33210</v>
+        <v>32081</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.07631665991730587</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.04640047140693603</v>
+        <v>0.046315534611977</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1186687397535305</v>
+        <v>0.1146349428792932</v>
       </c>
     </row>
     <row r="18">
@@ -6611,19 +6611,19 @@
         <v>128393</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>108485</v>
+        <v>109420</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>149216</v>
+        <v>147751</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2655850614718155</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.2244044023532231</v>
+        <v>0.2263386173189361</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.3086576237612662</v>
+        <v>0.3056285054485141</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>181</v>
@@ -6632,19 +6632,19 @@
         <v>179641</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>161002</v>
+        <v>159013</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>199709</v>
+        <v>198445</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.492245314976899</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.4411702349673033</v>
+        <v>0.4357207522509124</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.5472358680981896</v>
+        <v>0.5437715603987759</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>303</v>
@@ -6653,19 +6653,19 @@
         <v>308033</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>279473</v>
+        <v>277725</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>335593</v>
+        <v>334321</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.3630864096868062</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.3294214011061193</v>
+        <v>0.3273605858576175</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.3955712605285081</v>
+        <v>0.3940716529634517</v>
       </c>
     </row>
     <row r="20">
@@ -6682,19 +6682,19 @@
         <v>136712</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>117791</v>
+        <v>115890</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>155947</v>
+        <v>157463</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.2827941387308459</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.2436552337125671</v>
+        <v>0.2397215038678899</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.3225815290773966</v>
+        <v>0.3257167700046197</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>92</v>
@@ -6703,19 +6703,19 @@
         <v>93815</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>77245</v>
+        <v>79221</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>111289</v>
+        <v>112324</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.2570678549935668</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.211663659952285</v>
+        <v>0.2170784813692663</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.304949768356275</v>
+        <v>0.307785803857419</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>222</v>
@@ -6724,19 +6724,19 @@
         <v>230527</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>207612</v>
+        <v>204657</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>256831</v>
+        <v>257606</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.2717275873167496</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.2447177446867692</v>
+        <v>0.2412344234212142</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.3027325531698293</v>
+        <v>0.3036458316704997</v>
       </c>
     </row>
     <row r="21">
@@ -6753,19 +6753,19 @@
         <v>113953</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>95809</v>
+        <v>98387</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>135331</v>
+        <v>134583</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.2357156829886123</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.1981832630536704</v>
+        <v>0.2035160893054516</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.2799367136834613</v>
+        <v>0.2783904009120916</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>55</v>
@@ -6774,19 +6774,19 @@
         <v>57874</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>44864</v>
+        <v>44103</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>73008</v>
+        <v>73548</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.1585854015934099</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.1229349307740656</v>
+        <v>0.1208484849407992</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.20005371953894</v>
+        <v>0.2015344122547831</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>166</v>
@@ -6795,19 +6795,19 @@
         <v>171827</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>149444</v>
+        <v>150670</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>197142</v>
+        <v>196457</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.2025369217901246</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.1761535144115472</v>
+        <v>0.1775982651513021</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.2323760006144988</v>
+        <v>0.231568070572496</v>
       </c>
     </row>
     <row r="22">
@@ -6824,19 +6824,19 @@
         <v>104376</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>86279</v>
+        <v>86233</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>123488</v>
+        <v>123475</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.2159051168087263</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.178471889101061</v>
+        <v>0.1783764695104262</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2554385748342427</v>
+        <v>0.2554131657260744</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>32</v>
@@ -6845,19 +6845,19 @@
         <v>33612</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>23465</v>
+        <v>24131</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>45500</v>
+        <v>47499</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.09210142843612434</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.0642989024872197</v>
+        <v>0.06612311872648628</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1246781028728182</v>
+        <v>0.1301542796962612</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>128</v>
@@ -6866,19 +6866,19 @@
         <v>137987</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>117992</v>
+        <v>116367</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>161756</v>
+        <v>159791</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1626490812063196</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1390802043037883</v>
+        <v>0.1371640212020506</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1906655062800078</v>
+        <v>0.1883491257742413</v>
       </c>
     </row>
     <row r="23">
@@ -6970,19 +6970,19 @@
         <v>13700</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>7434</v>
+        <v>7965</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>22579</v>
+        <v>22525</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.0709771150605229</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.03851196632678034</v>
+        <v>0.04126328565824406</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.1169740604330189</v>
+        <v>0.1166980636706173</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>84</v>
@@ -6991,19 +6991,19 @@
         <v>86543</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>73220</v>
+        <v>72316</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>101992</v>
+        <v>100136</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.4424135595144635</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.3743040441087429</v>
+        <v>0.3696859062362707</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.5213867450628765</v>
+        <v>0.5119029997597155</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>97</v>
@@ -7012,19 +7012,19 @@
         <v>100243</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>82267</v>
+        <v>83091</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>117564</v>
+        <v>117924</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.2579352230228245</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.2116790237844853</v>
+        <v>0.2138006199044498</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.3025019877994858</v>
+        <v>0.3034280970366078</v>
       </c>
     </row>
     <row r="25">
@@ -7041,19 +7041,19 @@
         <v>39367</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>28829</v>
+        <v>28979</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>51878</v>
+        <v>51978</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2039513155959014</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1493535505504134</v>
+        <v>0.1501349587607357</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2687678470429142</v>
+        <v>0.2692857482103118</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>47</v>
@@ -7062,19 +7062,19 @@
         <v>47756</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>36228</v>
+        <v>36885</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>60550</v>
+        <v>60568</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2441303005513579</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1852001600840897</v>
+        <v>0.1885578888037042</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.3095349736698997</v>
+        <v>0.3096284537821097</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>83</v>
@@ -7083,19 +7083,19 @@
         <v>87123</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>68470</v>
+        <v>71824</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>103200</v>
+        <v>104927</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2241749288661641</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1761806078900409</v>
+        <v>0.1848105219435091</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2655433770213688</v>
+        <v>0.269986838190506</v>
       </c>
     </row>
     <row r="26">
@@ -7112,19 +7112,19 @@
         <v>54551</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>40747</v>
+        <v>42975</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>66528</v>
+        <v>68434</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.2826144623974065</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.2111007345422649</v>
+        <v>0.2226455550138329</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.3446678579496454</v>
+        <v>0.3545404131342191</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>23</v>
@@ -7133,19 +7133,19 @@
         <v>24754</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>15905</v>
+        <v>15651</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>34433</v>
+        <v>35078</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.1265450926245116</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.08130547294079689</v>
+        <v>0.08001057252477786</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.1760229310961069</v>
+        <v>0.1793225280121684</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>74</v>
@@ -7154,19 +7154,19 @@
         <v>79305</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>65850</v>
+        <v>64909</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>98424</v>
+        <v>98782</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.2040588049779917</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.1694387594183724</v>
+        <v>0.1670155935136871</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.2532541417508615</v>
+        <v>0.2541735771102777</v>
       </c>
     </row>
     <row r="27">
@@ -7183,19 +7183,19 @@
         <v>85404</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>72054</v>
+        <v>70973</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>99817</v>
+        <v>100331</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.4424571069461693</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.3732931819779285</v>
+        <v>0.3676925931385925</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.5171259934586631</v>
+        <v>0.5197928533742382</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>36</v>
@@ -7204,19 +7204,19 @@
         <v>36563</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>26631</v>
+        <v>26367</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>48463</v>
+        <v>48292</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.186911047309667</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.1361377651463488</v>
+        <v>0.1347909793960283</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.2477431115300419</v>
+        <v>0.246873063059273</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>112</v>
@@ -7225,19 +7225,19 @@
         <v>121967</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>103822</v>
+        <v>102953</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>143253</v>
+        <v>141262</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.3138310431330197</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.2671440044307273</v>
+        <v>0.2649064044415625</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.3686028188036323</v>
+        <v>0.3634793402578973</v>
       </c>
     </row>
     <row r="28">
@@ -7329,19 +7329,19 @@
         <v>461768</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>425605</v>
+        <v>421511</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>493993</v>
+        <v>497070</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.3280491699384839</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.3023587797764483</v>
+        <v>0.2994503380549747</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.3509427912243903</v>
+        <v>0.3531290561259915</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>549</v>
@@ -7350,19 +7350,19 @@
         <v>556674</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>525761</v>
+        <v>526274</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>587886</v>
+        <v>589337</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.5414466845476108</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.5113788462115988</v>
+        <v>0.5118778043881138</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.5718043186375293</v>
+        <v>0.5732162677452016</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>977</v>
@@ -7371,19 +7371,19 @@
         <v>1018442</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>971911</v>
+        <v>971512</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>1064180</v>
+        <v>1068904</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.418124077960343</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.3990204753970856</v>
+        <v>0.3988567805068248</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.4369020423878812</v>
+        <v>0.4388412121602993</v>
       </c>
     </row>
     <row r="30">
@@ -7400,19 +7400,19 @@
         <v>400462</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>365826</v>
+        <v>366101</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>433741</v>
+        <v>438152</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.2844965938907961</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.2598902176683243</v>
+        <v>0.2600860020985424</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.3081385958088855</v>
+        <v>0.3112720314886462</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>251</v>
@@ -7421,19 +7421,19 @@
         <v>257999</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>231237</v>
+        <v>229777</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>286747</v>
+        <v>286365</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.2509413304814904</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.2249112145810343</v>
+        <v>0.2234916749591116</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.2789027530324932</v>
+        <v>0.2785315633561626</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>625</v>
@@ -7442,19 +7442,19 @@
         <v>658461</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>615793</v>
+        <v>614490</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>707099</v>
+        <v>703664</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.2703329459646304</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.2528153965392017</v>
+        <v>0.2522805210181741</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.2903012176209549</v>
+        <v>0.2888913112647055</v>
       </c>
     </row>
     <row r="31">
@@ -7471,19 +7471,19 @@
         <v>298791</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>269957</v>
+        <v>268475</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>330086</v>
+        <v>331628</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.2122675891614385</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.1917830746696447</v>
+        <v>0.1907298629123956</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.2344995542588111</v>
+        <v>0.2355955519215053</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>118</v>
@@ -7492,19 +7492,19 @@
         <v>125510</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>106794</v>
+        <v>105334</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>148666</v>
+        <v>149831</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.1220766632486146</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.1038725194260901</v>
+        <v>0.1024522405605005</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.1445997144234048</v>
+        <v>0.1457320376188808</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>403</v>
@@ -7513,19 +7513,19 @@
         <v>424301</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>388550</v>
+        <v>390145</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>464511</v>
+        <v>464044</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.1741980766327464</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.1595201226523871</v>
+        <v>0.1601752573570199</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.1907060567942182</v>
+        <v>0.1905143283935954</v>
       </c>
     </row>
     <row r="32">
@@ -7542,19 +7542,19 @@
         <v>246596</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>218464</v>
+        <v>216462</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>278133</v>
+        <v>277678</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.1751866470092815</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.1552015754278629</v>
+        <v>0.1537789436786778</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.1975911754489004</v>
+        <v>0.1972680240237573</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>86</v>
@@ -7563,19 +7563,19 @@
         <v>87941</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>72061</v>
+        <v>73020</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>108410</v>
+        <v>108336</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.08553532172228429</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.07008956024305517</v>
+        <v>0.0710227645000993</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.105444885103446</v>
+        <v>0.1053722691040053</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>308</v>
@@ -7584,19 +7584,19 @@
         <v>334537</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>299727</v>
+        <v>300650</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>371005</v>
+        <v>369631</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.1373448994422802</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.1230537939058854</v>
+        <v>0.1234326833597484</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.1523172248014995</v>
+        <v>0.1517529323987498</v>
       </c>
     </row>
     <row r="33">
@@ -7929,19 +7929,19 @@
         <v>125588</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>109605</v>
+        <v>112270</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>140054</v>
+        <v>141076</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.6427869223612517</v>
+        <v>0.6427869223612516</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.5609824135060545</v>
+        <v>0.5746243355819957</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.7168269117395213</v>
+        <v>0.7220583605573246</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>160</v>
@@ -7950,19 +7950,19 @@
         <v>117466</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>107548</v>
+        <v>106277</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>127878</v>
+        <v>126683</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.7346328078693194</v>
+        <v>0.7346328078693196</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.6726098547332887</v>
+        <v>0.6646576733455609</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.7997522654631306</v>
+        <v>0.7922765846173848</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>267</v>
@@ -7971,19 +7971,19 @@
         <v>243053</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>224457</v>
+        <v>222091</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>258800</v>
+        <v>258949</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.6841233744014296</v>
+        <v>0.6841233744014295</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.6317789401379987</v>
+        <v>0.6251208317722327</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.7284444173139373</v>
+        <v>0.7288640064694594</v>
       </c>
     </row>
     <row r="5">
@@ -8000,19 +8000,19 @@
         <v>42490</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>30998</v>
+        <v>30214</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>56782</v>
+        <v>56058</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2174729293526732</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1586542833676526</v>
+        <v>0.1546405221206062</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2906208506804437</v>
+        <v>0.2869172465572014</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>31</v>
@@ -8021,19 +8021,19 @@
         <v>23634</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>16318</v>
+        <v>17061</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>32350</v>
+        <v>33574</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1478092731908551</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1020511274670998</v>
+        <v>0.1066978193560367</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2023170221910729</v>
+        <v>0.2099697532156775</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>68</v>
@@ -8042,19 +8042,19 @@
         <v>66124</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>51548</v>
+        <v>52482</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>82455</v>
+        <v>82974</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1861198821699174</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1450929415477638</v>
+        <v>0.1477209934709591</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2320872105882652</v>
+        <v>0.2335465438384617</v>
       </c>
     </row>
     <row r="6">
@@ -8071,19 +8071,19 @@
         <v>14186</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>7669</v>
+        <v>8079</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>22765</v>
+        <v>24289</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.07260920702387481</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.03925354399345418</v>
+        <v>0.04134836226814296</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1165165937239361</v>
+        <v>0.124315436496281</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>13</v>
@@ -8092,19 +8092,19 @@
         <v>10048</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>5564</v>
+        <v>5451</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>16528</v>
+        <v>16690</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.06284120571905585</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.03479472739916457</v>
+        <v>0.03409127465333556</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1033685912162755</v>
+        <v>0.1043796733884802</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>26</v>
@@ -8113,19 +8113,19 @@
         <v>24235</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>16502</v>
+        <v>16819</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>35658</v>
+        <v>34983</v>
       </c>
       <c r="U6" s="6" t="n">
-        <v>0.06821298921584271</v>
+        <v>0.06821298921584269</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.04644786058743971</v>
+        <v>0.04734022881697552</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1003660250488111</v>
+        <v>0.09846751940951867</v>
       </c>
     </row>
     <row r="7">
@@ -8142,19 +8142,19 @@
         <v>13116</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>6252</v>
+        <v>7050</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>22595</v>
+        <v>23736</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.06713094126220032</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.03199839995846315</v>
+        <v>0.03608161237643855</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1156462628545004</v>
+        <v>0.1214870551630021</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>12</v>
@@ -8163,19 +8163,19 @@
         <v>8749</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>4932</v>
+        <v>4797</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>14414</v>
+        <v>14254</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.05471671322076954</v>
+        <v>0.05471671322076953</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.03084709005473454</v>
+        <v>0.03000257401690384</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.09014498811010213</v>
+        <v>0.08914737299910599</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>22</v>
@@ -8184,19 +8184,19 @@
         <v>21865</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>13900</v>
+        <v>13593</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>32994</v>
+        <v>33018</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.0615437542128103</v>
+        <v>0.06154375421281028</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.03912457916634378</v>
+        <v>0.03826004673281352</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.09286812110789049</v>
+        <v>0.09293546078075057</v>
       </c>
     </row>
     <row r="8">
@@ -8288,19 +8288,19 @@
         <v>102059</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>87167</v>
+        <v>87040</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>114167</v>
+        <v>115048</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.6180086410253788</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.5278334615843561</v>
+        <v>0.5270598696829121</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.6913292460698518</v>
+        <v>0.6966636186345846</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>129</v>
@@ -8309,19 +8309,19 @@
         <v>95325</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>85095</v>
+        <v>86221</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>102818</v>
+        <v>103521</v>
       </c>
       <c r="N9" s="6" t="n">
-        <v>0.7676395858322455</v>
+        <v>0.7676395858322453</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.6852596528397193</v>
+        <v>0.6943259933310338</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.8279807954925283</v>
+        <v>0.833641276131318</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>218</v>
@@ -8330,19 +8330,19 @@
         <v>197384</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>178569</v>
+        <v>181244</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>213225</v>
+        <v>213690</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.6822313695097492</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.617201165194469</v>
+        <v>0.6264449998198682</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.7369843485216695</v>
+        <v>0.7385920944311337</v>
       </c>
     </row>
     <row r="10">
@@ -8359,19 +8359,19 @@
         <v>44177</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>32007</v>
+        <v>32178</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>58807</v>
+        <v>59666</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2675081992173186</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1938158537916751</v>
+        <v>0.1948476889563944</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3561006288898498</v>
+        <v>0.3613002218101594</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>24</v>
@@ -8380,19 +8380,19 @@
         <v>20445</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>14068</v>
+        <v>13173</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>29272</v>
+        <v>28687</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1646386548903258</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1132879472742994</v>
+        <v>0.1060833558950561</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2357203131250403</v>
+        <v>0.2310117308333634</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>60</v>
@@ -8401,19 +8401,19 @@
         <v>64622</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>49766</v>
+        <v>49683</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>80457</v>
+        <v>80593</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.2233558160110864</v>
+        <v>0.2233558160110863</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1720080177883722</v>
+        <v>0.1717219640075486</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2780890058616697</v>
+        <v>0.2785579290372759</v>
       </c>
     </row>
     <row r="11">
@@ -8430,19 +8430,19 @@
         <v>12010</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>6130</v>
+        <v>5955</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>21722</v>
+        <v>21031</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.07272676237489777</v>
+        <v>0.07272676237489775</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.0371179020211487</v>
+        <v>0.03605945677900912</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.131536274538844</v>
+        <v>0.127351651152606</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>6</v>
@@ -8451,19 +8451,19 @@
         <v>4213</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>1484</v>
+        <v>1892</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>8991</v>
+        <v>9008</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.03392596728251211</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.01194805761785061</v>
+        <v>0.01523771592596861</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.07240142197876862</v>
+        <v>0.07253990818802335</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>16</v>
@@ -8472,19 +8472,19 @@
         <v>16223</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>9690</v>
+        <v>9599</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>26115</v>
+        <v>26615</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.05607316888584817</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.03349334548190726</v>
+        <v>0.03317630106635072</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.09026309838291438</v>
+        <v>0.09198967988766268</v>
       </c>
     </row>
     <row r="12">
@@ -8501,19 +8501,19 @@
         <v>6896</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>3018</v>
+        <v>2967</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>14615</v>
+        <v>14372</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.04175639738240496</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.0182750228715627</v>
+        <v>0.01796780313357726</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.08849744161514209</v>
+        <v>0.08702695404577887</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>5</v>
@@ -8522,19 +8522,19 @@
         <v>4197</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>1431</v>
+        <v>1672</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>9389</v>
+        <v>9592</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.03379579199491669</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.01152764092612661</v>
+        <v>0.01346522830999784</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.07560543974327047</v>
+        <v>0.07724174686464418</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>11</v>
@@ -8543,19 +8543,19 @@
         <v>11092</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>5968</v>
+        <v>5545</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>19838</v>
+        <v>19207</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.03833964559331639</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.02062762541674687</v>
+        <v>0.01916574888845684</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.06856768753550811</v>
+        <v>0.06638730413003611</v>
       </c>
     </row>
     <row r="13">
@@ -8647,19 +8647,19 @@
         <v>34235</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>22954</v>
+        <v>23412</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>46000</v>
+        <v>46082</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.244831481994041</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1641532070163158</v>
+        <v>0.1674283253761278</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.3289679018133625</v>
+        <v>0.3295493151900162</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>47</v>
@@ -8668,19 +8668,19 @@
         <v>36427</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>30757</v>
+        <v>31128</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>40830</v>
+        <v>41492</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.747994068834784</v>
+        <v>0.7479940688347839</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.6315626140750924</v>
+        <v>0.6391718020675744</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8384049692351501</v>
+        <v>0.8519962336463027</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>78</v>
@@ -8689,19 +8689,19 @@
         <v>70662</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>57510</v>
+        <v>57466</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>87668</v>
+        <v>85704</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.3748034195598803</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.3050407134517153</v>
+        <v>0.3048086427013113</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.4650026314531568</v>
+        <v>0.4545865313535768</v>
       </c>
     </row>
     <row r="15">
@@ -8718,19 +8718,19 @@
         <v>50161</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>37530</v>
+        <v>38315</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>62502</v>
+        <v>62612</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.3587247071424173</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.2683945544840103</v>
+        <v>0.2740107706149931</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.4469820653803654</v>
+        <v>0.4477659143614652</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>12</v>
@@ -8739,19 +8739,19 @@
         <v>7989</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>3923</v>
+        <v>4410</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>13365</v>
+        <v>13206</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.1640461577458098</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.08055577040049848</v>
+        <v>0.09056102199843592</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.2744433454104045</v>
+        <v>0.2711700051134414</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>58</v>
@@ -8760,19 +8760,19 @@
         <v>58150</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>45774</v>
+        <v>46298</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>73243</v>
+        <v>72338</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.3084372872719238</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.2427933709738575</v>
+        <v>0.2455731777388788</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.388493512506328</v>
+        <v>0.3836885255175819</v>
       </c>
     </row>
     <row r="16">
@@ -8789,19 +8789,19 @@
         <v>30785</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>21729</v>
+        <v>21262</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>42758</v>
+        <v>42445</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2201596822229688</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1553900809504037</v>
+        <v>0.1520569343138857</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.305784629357493</v>
+        <v>0.3035410502904232</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>2</v>
@@ -8813,16 +8813,16 @@
         <v>0</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>4373</v>
+        <v>4634</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.02890904247649156</v>
+        <v>0.02890904247649157</v>
       </c>
       <c r="O16" s="6" t="n">
         <v>0</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.0897994966040539</v>
+        <v>0.09515444950441647</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>29</v>
@@ -8831,19 +8831,19 @@
         <v>32193</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>22455</v>
+        <v>22379</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>45282</v>
+        <v>45135</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.170757725760686</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1191060056019528</v>
+        <v>0.1187015801934957</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2401802895966918</v>
+        <v>0.2394001350568837</v>
       </c>
     </row>
     <row r="17">
@@ -8860,19 +8860,19 @@
         <v>24650</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>14732</v>
+        <v>13860</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>37761</v>
+        <v>39004</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.1762841286405729</v>
+        <v>0.1762841286405728</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1053562370706665</v>
+        <v>0.09911601535831317</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2700482480359691</v>
+        <v>0.278938165173779</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>4</v>
@@ -8881,19 +8881,19 @@
         <v>2876</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>900</v>
+        <v>719</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>6715</v>
+        <v>7083</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.05905073094291464</v>
+        <v>0.05905073094291465</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.01848825101872698</v>
+        <v>0.01476391145743428</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1378874170685171</v>
+        <v>0.1454453190679626</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>20</v>
@@ -8902,19 +8902,19 @@
         <v>27526</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>17311</v>
+        <v>16542</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>42406</v>
+        <v>43154</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1460015674075097</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.09181845038828731</v>
+        <v>0.08774121184613753</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.224928957469608</v>
+        <v>0.2288960530990226</v>
       </c>
     </row>
     <row r="18">
@@ -9006,19 +9006,19 @@
         <v>70497</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>54844</v>
+        <v>55148</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>87480</v>
+        <v>88761</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.243581760966341</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1894980300564136</v>
+        <v>0.1905469013716954</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.3022618840048328</v>
+        <v>0.3066876632511337</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>135</v>
@@ -9027,19 +9027,19 @@
         <v>101099</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>87805</v>
+        <v>87582</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>115058</v>
+        <v>114149</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.4644431661196501</v>
+        <v>0.46444316611965</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.4033702974011514</v>
+        <v>0.4023444567471735</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.5285718940888877</v>
+        <v>0.5243944463740143</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>194</v>
@@ -9048,19 +9048,19 @@
         <v>171596</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>152426</v>
+        <v>151148</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>195159</v>
+        <v>192916</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.3383893555487298</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.3005847953400664</v>
+        <v>0.2980654073342739</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.3848549933432985</v>
+        <v>0.3804314854923981</v>
       </c>
     </row>
     <row r="20">
@@ -9077,19 +9077,19 @@
         <v>87144</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>70724</v>
+        <v>70804</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>106623</v>
+        <v>105623</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.3011001386986555</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.2443663481928857</v>
+        <v>0.244642036540573</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.3684051306484742</v>
+        <v>0.3649488801897884</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>88</v>
@@ -9098,19 +9098,19 @@
         <v>70589</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>58955</v>
+        <v>58286</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>83242</v>
+        <v>83366</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.3242818380951447</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.2708375872495053</v>
+        <v>0.2677618415648033</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.3824090740330098</v>
+        <v>0.3829772321514725</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>164</v>
@@ -9119,19 +9119,19 @@
         <v>157733</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>137350</v>
+        <v>137540</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>181385</v>
+        <v>181517</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.3110511808763849</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.2708551912661215</v>
+        <v>0.2712303805882484</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.3576931296084424</v>
+        <v>0.3579538335791571</v>
       </c>
     </row>
     <row r="21">
@@ -9148,19 +9148,19 @@
         <v>93048</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>76979</v>
+        <v>75880</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>113049</v>
+        <v>113012</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.3215004645440377</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.2659789785329606</v>
+        <v>0.2621815549339061</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.3906065455742931</v>
+        <v>0.3904791705218357</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>26</v>
@@ -9169,19 +9169,19 @@
         <v>21014</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>13984</v>
+        <v>14195</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>30139</v>
+        <v>31138</v>
       </c>
       <c r="N21" s="6" t="n">
-        <v>0.09653829486457927</v>
+        <v>0.09653829486457922</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.06424363327263377</v>
+        <v>0.06520938267969426</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.138455843192125</v>
+        <v>0.1430473103999856</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>106</v>
@@ -9190,19 +9190,19 @@
         <v>114063</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>96527</v>
+        <v>96173</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>140062</v>
+        <v>135602</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.2249325641245872</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.190351391575892</v>
+        <v>0.1896533571486106</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.2762028662446225</v>
+        <v>0.2674075325521298</v>
       </c>
     </row>
     <row r="22">
@@ -9219,19 +9219,19 @@
         <v>38729</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>25756</v>
+        <v>27713</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>51838</v>
+        <v>54177</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1338176357909658</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.08899214283734355</v>
+        <v>0.09575280895964565</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1791118677959608</v>
+        <v>0.187191195931579</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>28</v>
@@ -9240,19 +9240,19 @@
         <v>24976</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>17106</v>
+        <v>16967</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>35791</v>
+        <v>35235</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.114736700920626</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.07858333027920468</v>
+        <v>0.07794655519061397</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1644197446473305</v>
+        <v>0.1618672822102382</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>60</v>
@@ -9261,19 +9261,19 @@
         <v>63705</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>48578</v>
+        <v>49200</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>79719</v>
+        <v>81052</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1256268994502981</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.09579561182919631</v>
+        <v>0.09702285508910233</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1572061238607987</v>
+        <v>0.1598355456200426</v>
       </c>
     </row>
     <row r="23">
@@ -9365,19 +9365,19 @@
         <v>25692</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>16055</v>
+        <v>16436</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>38272</v>
+        <v>39270</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>0.1522514469584213</v>
+        <v>0.1522514469584214</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.09513987548565432</v>
+        <v>0.09740095121272233</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.2267949877918488</v>
+        <v>0.2327118630080469</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>71</v>
@@ -9386,19 +9386,19 @@
         <v>50883</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>41519</v>
+        <v>41279</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>61121</v>
+        <v>60812</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.3377872138315368</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.2756235573076504</v>
+        <v>0.2740313996559742</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.4057520945068436</v>
+        <v>0.4037009827959252</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>91</v>
@@ -9407,19 +9407,19 @@
         <v>76576</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>63199</v>
+        <v>63369</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>93012</v>
+        <v>93123</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.239758558106728</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.1978760800533869</v>
+        <v>0.1984083744133142</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.2912192706795584</v>
+        <v>0.2915669388501839</v>
       </c>
     </row>
     <row r="25">
@@ -9436,19 +9436,19 @@
         <v>49580</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>36841</v>
+        <v>36928</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>64558</v>
+        <v>63735</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2938068980036564</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.2183177447577498</v>
+        <v>0.2188315679948186</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.3825684801551476</v>
+        <v>0.3776912741511766</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>78</v>
@@ -9457,19 +9457,19 @@
         <v>52316</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>42918</v>
+        <v>41684</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>63252</v>
+        <v>62865</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.3472959875195946</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.284911805278023</v>
+        <v>0.2767178817036406</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.4199001165137777</v>
+        <v>0.4173307415227425</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>120</v>
@@ -9478,19 +9478,19 @@
         <v>101896</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>84450</v>
+        <v>85751</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>119464</v>
+        <v>118594</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.3190347868381255</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.2644115447612901</v>
+        <v>0.2684851887229975</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.374040812346202</v>
+        <v>0.371318184617819</v>
       </c>
     </row>
     <row r="26">
@@ -9507,19 +9507,19 @@
         <v>47862</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>34758</v>
+        <v>34886</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>63561</v>
+        <v>63751</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.2836285189782971</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.2059758329534387</v>
+        <v>0.2067334005234523</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.3766557011137446</v>
+        <v>0.3777861870532753</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>37</v>
@@ -9528,19 +9528,19 @@
         <v>29988</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>22036</v>
+        <v>22126</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>39941</v>
+        <v>39996</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.1990743990119442</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.1462850945964492</v>
+        <v>0.1468819072981059</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.2651473055294846</v>
+        <v>0.2655131749810098</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>74</v>
@@ -9549,19 +9549,19 @@
         <v>77850</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>62210</v>
+        <v>61230</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>99183</v>
+        <v>95283</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.2437489480543631</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.1947782642861998</v>
+        <v>0.1917101607794401</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.3105425643461125</v>
+        <v>0.2983294670266692</v>
       </c>
     </row>
     <row r="27">
@@ -9578,19 +9578,19 @@
         <v>45615</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>32889</v>
+        <v>32847</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>60293</v>
+        <v>62267</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.2703131360596251</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.1948965851865273</v>
+        <v>0.1946512848689273</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.3572911215265369</v>
+        <v>0.3689898356099871</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>20</v>
@@ -9599,19 +9599,19 @@
         <v>17450</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>11354</v>
+        <v>11508</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>27411</v>
+        <v>26514</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.1158423996369244</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.07537388448272125</v>
+        <v>0.07639668611668</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.1819692554927998</v>
+        <v>0.1760123593524338</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>54</v>
@@ -9620,19 +9620,19 @@
         <v>63065</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>48962</v>
+        <v>49034</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>81380</v>
+        <v>83769</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.1974577070007834</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.153299826688021</v>
+        <v>0.1535267917657265</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.2547991878257544</v>
+        <v>0.2622819495807888</v>
       </c>
     </row>
     <row r="28">
@@ -9724,19 +9724,19 @@
         <v>358072</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>322693</v>
+        <v>327439</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>392350</v>
+        <v>392605</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.3735662733401197</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.3366565108266516</v>
+        <v>0.3416076167941063</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.4093281185303478</v>
+        <v>0.4095940937689568</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>542</v>
@@ -9745,19 +9745,19 @@
         <v>401200</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>376570</v>
+        <v>377089</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>423561</v>
+        <v>424655</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.5722505996991836</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.5371197127492201</v>
+        <v>0.537860528975815</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.6041459102481014</v>
+        <v>0.6057065736153646</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>848</v>
@@ -9766,19 +9766,19 @@
         <v>759272</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>717496</v>
+        <v>718090</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>801331</v>
+        <v>801892</v>
       </c>
       <c r="U29" s="6" t="n">
-        <v>0.4574989056592533</v>
+        <v>0.4574989056592532</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.4323268905896778</v>
+        <v>0.4326844418292871</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.4828413915269672</v>
+        <v>0.4831797107564575</v>
       </c>
     </row>
     <row r="30">
@@ -9795,19 +9795,19 @@
         <v>273552</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>243468</v>
+        <v>242141</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>305688</v>
+        <v>304639</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.2853890085699921</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.2540037528089896</v>
+        <v>0.2526191211112456</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.3189152046958976</v>
+        <v>0.3178216576340027</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>233</v>
@@ -9816,19 +9816,19 @@
         <v>174973</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>157941</v>
+        <v>154699</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>196452</v>
+        <v>197293</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.2495720060464742</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.2252791554745566</v>
+        <v>0.2206553380874615</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.2802091798575542</v>
+        <v>0.2814081724017566</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>470</v>
@@ -9837,19 +9837,19 @@
         <v>448525</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>411245</v>
+        <v>413781</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>488028</v>
+        <v>489073</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.2702583973201291</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.2477955205591034</v>
+        <v>0.2493232504774592</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.2940607551851536</v>
+        <v>0.2946903891379284</v>
       </c>
     </row>
     <row r="31">
@@ -9866,19 +9866,19 @@
         <v>197893</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>170740</v>
+        <v>170880</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>225619</v>
+        <v>227931</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.2064557842008087</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.1781283792252687</v>
+        <v>0.1782743629349718</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.2353816516862727</v>
+        <v>0.2377942911644046</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>84</v>
@@ -9887,19 +9887,19 @@
         <v>66671</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>53343</v>
+        <v>52729</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>82236</v>
+        <v>81937</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>0.095096349335884</v>
+        <v>0.09509634933588401</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.07608519568226917</v>
+        <v>0.07521038583551792</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.1172967584884511</v>
+        <v>0.1168709382690716</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>251</v>
@@ -9908,19 +9908,19 @@
         <v>264564</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>235964</v>
+        <v>231551</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>300410</v>
+        <v>293194</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.1594128660549012</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.1421797770767974</v>
+        <v>0.1395209887626971</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.1810119061396578</v>
+        <v>0.1766639084813542</v>
       </c>
     </row>
     <row r="32">
@@ -9937,19 +9937,19 @@
         <v>129007</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>104988</v>
+        <v>104916</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>156236</v>
+        <v>158010</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.1345889338890796</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.1095308224252677</v>
+        <v>0.1094564171273348</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.1629968792193445</v>
+        <v>0.1648470316105658</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>69</v>
@@ -9958,19 +9958,19 @@
         <v>58247</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>45089</v>
+        <v>45982</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>72698</v>
+        <v>75584</v>
       </c>
       <c r="N32" s="6" t="n">
-        <v>0.08308104491845822</v>
+        <v>0.08308104491845823</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.06431229776705918</v>
+        <v>0.06558648785075512</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.1036933032693347</v>
+        <v>0.1078092096949859</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>167</v>
@@ -9979,19 +9979,19 @@
         <v>187254</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>160159</v>
+        <v>160481</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>217787</v>
+        <v>220656</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.1128298309657165</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.09650393752048211</v>
+        <v>0.09669797978590522</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.1312277127752608</v>
+        <v>0.132955962986164</v>
       </c>
     </row>
     <row r="33">
